--- a/Excel/SentenceConfig.xlsx
+++ b/Excel/SentenceConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB93ACA-BDF7-41C7-8EE9-530A4DE4947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14400" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -20,94 +14,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+  <si>
+    <t>句子ID</t>
+  </si>
+  <si>
+    <t>句子内容</t>
+  </si>
+  <si>
+    <t>头像资源</t>
+  </si>
+  <si>
+    <t>资源合图路径</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>SentenceContent</t>
+  </si>
+  <si>
+    <t>HeadImage</t>
+  </si>
+  <si>
+    <t>AtlasImage</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>句子ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>句子内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SentenceContent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>句子内容1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeadImage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_icon_hero001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源合图路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是你开启了光门吧。</t>
+  </si>
+  <si>
+    <t>Apollo</t>
   </si>
   <si>
     <t>Assets/Res/HeroCards/HeroCardSpriteAtlas.spriteatlas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtlasImage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>句子内容2</t>
-  </si>
-  <si>
-    <t>句子内容3</t>
-  </si>
-  <si>
-    <t>句子内容4</t>
-  </si>
-  <si>
-    <t>句子内容5</t>
-  </si>
-  <si>
-    <t>句子内容6</t>
-  </si>
-  <si>
-    <t>hero_icon_hero002</t>
-  </si>
-  <si>
-    <t>hero_icon_hero003</t>
+  </si>
+  <si>
+    <t>这里似乎有一出好戏要开幕了。</t>
+  </si>
+  <si>
+    <t>不必谢我，我只是想让日子多一点趣味。</t>
+  </si>
+  <si>
+    <t>凡人，你叫什么名字？</t>
+  </si>
+  <si>
+    <t>玩家：输入自己的ID————————</t>
+  </si>
+  <si>
+    <t>hero_star</t>
+  </si>
+  <si>
+    <t>————————，神谕早已提过这个名字</t>
+  </si>
+  <si>
+    <t>实在太有趣了，哈哈哈哈哈哈</t>
+  </si>
+  <si>
+    <t>看来这里的混乱比我想象的还要严重啊。</t>
+  </si>
+  <si>
+    <t>（就在此时，其余的希腊神宙斯、阿提密斯也一同到来。）</t>
+  </si>
+  <si>
+    <t>父神，你来了。</t>
+  </si>
+  <si>
+    <t>嗯，吾儿，这里的情况我已经知晓了。先解决眼前的威胁吧。</t>
   </si>
   <si>
     <t>hero_icon_hero006</t>
   </si>
   <si>
-    <t>hero_icon_hero005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_icon_hero007</t>
+    <t>是。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,7 +116,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -127,18 +123,180 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +309,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,11 +504,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,24 +765,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -483,47 +1122,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E11"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.725" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="51.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.725" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.45" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.3666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.2666666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="77" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.453125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.45" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.1833333333333" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -532,18 +1171,18 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:12">
       <c r="C4" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -552,18 +1191,18 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:12">
       <c r="C5" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -572,26 +1211,26 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="3:12" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="1" spans="3:12">
       <c r="C6" s="5">
         <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="3:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" s="1" customFormat="1" spans="3:12">
       <c r="C7" s="5">
         <v>102</v>
       </c>
@@ -599,10 +1238,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="5"/>
@@ -611,94 +1250,319 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:9">
       <c r="C8" s="5">
         <v>103</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9">
       <c r="C9" s="5">
         <v>104</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9">
       <c r="C10" s="5">
         <v>105</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9">
       <c r="C11" s="5">
         <v>106</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+    <row r="12" spans="3:6">
+      <c r="C12" s="5">
+        <v>107</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="5">
+        <v>108</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="5">
+        <v>109</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="5">
+        <v>110</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="5">
+        <v>111</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="5">
+        <v>112</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="5">
+        <v>113</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="5">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/SentenceConfig.xlsx
+++ b/Excel/SentenceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="14070"/>
+    <workbookView windowWidth="28800" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>句子ID</t>
   </si>
@@ -46,7 +46,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>是你开启了光门吧。</t>
+    <t>是你释放了星钻的力量开启了光门吧。</t>
   </si>
   <si>
     <t>Apollo</t>
@@ -55,7 +55,7 @@
     <t>Assets/Res/HeroCards/HeroCardSpriteAtlas.spriteatlas</t>
   </si>
   <si>
-    <t>这里似乎有一出好戏要开幕了。</t>
+    <t>看来，这里似乎有一出好戏要开幕了。</t>
   </si>
   <si>
     <t>不必谢我，我只是想让日子多一点趣味。</t>
@@ -64,7 +64,7 @@
     <t>凡人，你叫什么名字？</t>
   </si>
   <si>
-    <t>玩家：输入自己的ID————————</t>
+    <t>玩家：输入玩家名称————————</t>
   </si>
   <si>
     <t>hero_star</t>
@@ -76,7 +76,7 @@
     <t>实在太有趣了，哈哈哈哈哈哈</t>
   </si>
   <si>
-    <t>看来这里的混乱比我想象的还要严重啊。</t>
+    <t>这里的混乱比我想象的还要严重啊。</t>
   </si>
   <si>
     <t>（就在此时，其余的希腊神宙斯、阿提密斯也一同到来。）</t>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>是。</t>
+  </si>
+  <si>
+    <t>阿波罗，星钻能量释放的后果远比我们所想的严重。</t>
+  </si>
+  <si>
+    <t>你先与我一同回到奥林匹斯山，此事需要从长计议。</t>
+  </si>
+  <si>
+    <t>hero_icon_hero007</t>
+  </si>
+  <si>
+    <t>这里，就交给阿提密斯吧。</t>
+  </si>
+  <si>
+    <t>hero_icon_hero008</t>
+  </si>
+  <si>
+    <t>是的，父神。</t>
+  </si>
+  <si>
+    <t>父神放心。</t>
+  </si>
+  <si>
+    <t>hero_icon_hero002</t>
   </si>
 </sst>
 </file>
@@ -104,7 +128,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,18 +162,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -608,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,137 +632,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,11 +783,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1130,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="C3:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1226,15 +1235,15 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:12">
       <c r="C7" s="5">
         <v>102</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1336,7 +1345,7 @@
       <c r="C13" s="5">
         <v>108</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1350,7 +1359,7 @@
       <c r="C14" s="5">
         <v>109</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1406,28 +1415,70 @@
       <c r="C18" s="5">
         <v>113</v>
       </c>
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:6">
       <c r="C19" s="5">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" s="5">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="3:3">
+      <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" s="5">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" s="5">
         <v>117</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="3:3">
@@ -1440,110 +1491,131 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:4">
       <c r="C25" s="5">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="3:3">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="3:4">
       <c r="C26" s="5">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="3:3">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="3:4">
       <c r="C27" s="5">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="3:3">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="3:4">
       <c r="C28" s="5">
         <v>123</v>
       </c>
-    </row>
-    <row r="29" spans="3:3">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="3:4">
       <c r="C29" s="5">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="3:3">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="3:4">
       <c r="C30" s="5">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="3:3">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="3:4">
       <c r="C31" s="5">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="3:3">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="3:4">
       <c r="C32" s="5">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="3:3">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="3:4">
       <c r="C33" s="5">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" spans="3:3">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="3:4">
       <c r="C34" s="5">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="3:3">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="3:4">
       <c r="C35" s="5">
         <v>130</v>
       </c>
-    </row>
-    <row r="36" spans="3:3">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="3:4">
       <c r="C36" s="5">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="3:3">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="3:4">
       <c r="C37" s="5">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="3:3">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="3:4">
       <c r="C38" s="5">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="3:3">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="3:4">
       <c r="C39" s="5">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="3:3">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="3:4">
       <c r="C40" s="5">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="3:3">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="3:4">
       <c r="C41" s="5">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="3:3">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="3:4">
       <c r="C42" s="5">
         <v>137</v>
       </c>
-    </row>
-    <row r="43" spans="3:3">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="3:4">
       <c r="C43" s="5">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="3:3">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="3:4">
       <c r="C44" s="5">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="3:3">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="3:4">
       <c r="C45" s="5">
         <v>140</v>
       </c>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="5">

--- a/Excel/SentenceConfig.xlsx
+++ b/Excel/SentenceConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>句子ID</t>
   </si>
@@ -76,19 +76,19 @@
     <t>实在太有趣了，哈哈哈哈哈哈</t>
   </si>
   <si>
+    <t>（就在此时，希腊主神宙斯、月神阿提密斯一同到来。）</t>
+  </si>
+  <si>
     <t>这里的混乱比我想象的还要严重啊。</t>
   </si>
   <si>
-    <t>（就在此时，其余的希腊神宙斯、阿提密斯也一同到来。）</t>
+    <t>hero_icon_hero006</t>
   </si>
   <si>
     <t>父神，你来了。</t>
   </si>
   <si>
-    <t>嗯，吾儿，这里的情况我已经知晓了。先解决眼前的威胁吧。</t>
-  </si>
-  <si>
-    <t>hero_icon_hero006</t>
+    <t>嗯，这里的情况我已经知晓了。先解决眼前的威胁吧。</t>
   </si>
   <si>
     <t>是。</t>
@@ -100,22 +100,37 @@
     <t>你先与我一同回到奥林匹斯山，此事需要从长计议。</t>
   </si>
   <si>
-    <t>hero_icon_hero007</t>
-  </si>
-  <si>
-    <t>这里，就交给阿提密斯吧。</t>
-  </si>
-  <si>
-    <t>hero_icon_hero008</t>
-  </si>
-  <si>
-    <t>是的，父神。</t>
+    <t>好的，父神。</t>
+  </si>
+  <si>
+    <t>阿提密斯，这里就交给你了</t>
+  </si>
+  <si>
+    <t>你要保护好（玩家ID）</t>
+  </si>
+  <si>
+    <t>或许，他能解开星钻的奥秘。</t>
   </si>
   <si>
     <t>父神放心。</t>
   </si>
   <si>
     <t>hero_icon_hero002</t>
+  </si>
+  <si>
+    <t>自身强化后的威力果然不同于以往，感觉不错！</t>
+  </si>
+  <si>
+    <t>本来，我还在怀疑是什么样的人能运用星钻的力量，</t>
+  </si>
+  <si>
+    <t>但现在我算是明白了。</t>
+  </si>
+  <si>
+    <t>继续前进吧！（玩家名称）</t>
+  </si>
+  <si>
+    <t>接下来的旅途应该会很艰险，愿众神照耀你。</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1155,7 @@
   <dimension ref="C3:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1349,7 +1364,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
@@ -1363,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
@@ -1374,7 +1389,7 @@
         <v>110</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
@@ -1388,10 +1403,10 @@
         <v>111</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
@@ -1419,7 +1434,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
@@ -1433,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>12</v>
@@ -1444,10 +1459,10 @@
         <v>115</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
@@ -1458,10 +1473,10 @@
         <v>116</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>12</v>
@@ -1472,78 +1487,151 @@
         <v>117</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:6">
       <c r="C23" s="5">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
+      <c r="D23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" s="5">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="3:4">
+      <c r="D24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="5">
         <v>120</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="3:4">
+      <c r="D25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="5">
         <v>121</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="3:4">
+      <c r="D26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="5">
         <v>122</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="3:4">
+      <c r="D27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="5">
         <v>123</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="3:4">
+      <c r="D28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" s="5">
         <v>124</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="3:4">
+      <c r="D29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" s="5">
         <v>125</v>
       </c>
       <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="3:4">
+      <c r="E30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" s="5">
         <v>126</v>
       </c>
       <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="3:4">
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
       <c r="C32" s="5">
         <v>127</v>
       </c>
       <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="3:4">
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" s="5">
         <v>128</v>
       </c>
       <c r="D33" s="7"/>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="5">
@@ -1575,11 +1663,10 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="3:3">
       <c r="C39" s="5">
         <v>134</v>
       </c>
-      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="5">
